--- a/09. অন্য বিভাগের সাথে যোগাযোগ,বিবিধ/একাউন্টস বিভাগ/Revenue & Vat Summery (2016-2021).xlsx
+++ b/09. অন্য বিভাগের সাথে যোগাযোগ,বিবিধ/একাউন্টস বিভাগ/Revenue & Vat Summery (2016-2021).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\00. Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\09. অন্য বিভাগের সাথে যোগাযোগ,বিবিধ\একাউন্টস বিভাগ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,26 +235,26 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,46 +555,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
@@ -861,57 +861,57 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="42" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1178,57 +1178,57 @@
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="77" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="12"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="2" t="s">
         <v>2</v>
       </c>
@@ -1495,57 +1495,57 @@
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="9"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="9"/>
     </row>
     <row r="107" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="12"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="2" t="s">
         <v>2</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="F119" s="10">
         <v>14644065.939999999</v>
       </c>
-      <c r="G119" s="16"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
@@ -1812,57 +1812,57 @@
       <c r="G124" s="9"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
       <c r="D125" s="9"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="9"/>
     </row>
     <row r="142" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
     </row>
     <row r="147" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="12"/>
+      <c r="C147" s="14"/>
       <c r="D147" s="2" t="s">
         <v>2</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="F153" s="10">
         <v>11868319.32</v>
       </c>
-      <c r="G153" s="17"/>
+      <c r="G153" s="12"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
@@ -2084,7 +2084,7 @@
       <c r="F157" s="10">
         <v>7470230.2999999998</v>
       </c>
-      <c r="G157" s="17" t="s">
+      <c r="G157" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2131,11 +2131,11 @@
       <c r="G159" s="9"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
       <c r="D160" s="9"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
@@ -2143,13 +2143,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A40:G40"/>
@@ -2162,12 +2161,13 @@
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="B147:C147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.45" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
